--- a/src/NamedRangeTestApp/Data/testSet/test_calc.xlsx
+++ b/src/NamedRangeTestApp/Data/testSet/test_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgeny\Desktop\testNamedRange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NamedRangeTestApp\src\NamedRangeTestApp\Data\testSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55D073-33A9-4AAC-BC52-1ADF2C5F6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA473A9-F5A5-44D2-95C7-04F2BEA4F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,34 @@
     <sheet name="errors" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="dir_1">f_params!$E$4:$F$7</definedName>
-    <definedName name="dir1_atr1">f_params!$F$4:$F$7</definedName>
-    <definedName name="dir1_name">f_params!$E$4:$E$7</definedName>
-    <definedName name="dir2_atr1">f_params!$I$4:$I$12</definedName>
-    <definedName name="dir2_atr2">f_params!$J$4:$J$12</definedName>
-    <definedName name="dir2_name">f_params!$H$4:$H$12</definedName>
-    <definedName name="errors">errors!$C$3:$C$7</definedName>
-    <definedName name="f1_p1">f_params!$A$4:$A$12</definedName>
-    <definedName name="f1_p2">f_params!$B$4:$B$12</definedName>
-    <definedName name="f1_v1">f_params!$C$4:$C$12</definedName>
-    <definedName name="f2_p">f_params!$L$4:$L$9</definedName>
-    <definedName name="f2_v">f_params!$M$4:$M$9</definedName>
-    <definedName name="general_column_cells">general!$C$5:$C$10</definedName>
-    <definedName name="general_row_cells">general!$C$12:$G$12</definedName>
-    <definedName name="general_single_cell">general!$C$3</definedName>
-    <definedName name="general_table_cells">general!$C$14:$G$17</definedName>
-    <definedName name="in_column_cells">inputs!$C$5:$C$10</definedName>
-    <definedName name="in_row_cells">inputs!$C$12:$G$12</definedName>
-    <definedName name="in_single_cell">inputs!$C$3</definedName>
-    <definedName name="in_table_cells">inputs!$C$14:$G$17</definedName>
+    <definedName name="column_cells_sum">'funcions'!$C$27:$C$32</definedName>
+    <definedName name="dir_1">'f_params'!$E$4:$F$7</definedName>
+    <definedName name="dir1_atr1">'f_params'!$F$4:$F$7</definedName>
+    <definedName name="dir1_name">'f_params'!$E$4:$E$7</definedName>
+    <definedName name="dir2_atr1">'f_params'!$I$4:$I$12</definedName>
+    <definedName name="dir2_atr2">'f_params'!$J$4:$J$12</definedName>
+    <definedName name="dir2_name">'f_params'!$H$4:$H$12</definedName>
+    <definedName name="errors">'errors'!$C$3:$C$7</definedName>
+    <definedName name="f1_p1">'f_params'!$A$4:$A$12</definedName>
+    <definedName name="f1_p2">'f_params'!$B$4:$B$12</definedName>
+    <definedName name="f1_v1">'f_params'!$C$4:$C$12</definedName>
+    <definedName name="f2_p">'f_params'!$L$4:$L$9</definedName>
+    <definedName name="f2_v">'f_params'!$M$4:$M$9</definedName>
+    <definedName name="general_column_cells">'general'!$C$5:$C$10</definedName>
+    <definedName name="general_row_cells">'general'!$C$12:$G$12</definedName>
+    <definedName name="general_single_cell">'general'!$C$3</definedName>
+    <definedName name="general_table_cells">'general'!$C$14:$G$17</definedName>
+    <definedName name="in_column_cells">'inputs'!$C$5:$C$10</definedName>
+    <definedName name="in_row_cells">'inputs'!$C$12:$G$12</definedName>
+    <definedName name="in_single_cell">'inputs'!$C$3</definedName>
+    <definedName name="in_table_cells">'inputs'!$C$14:$G$17</definedName>
+    <definedName name="logical_operations">'funcions'!$C$12:$C$17</definedName>
+    <definedName name="math_operations">'funcions'!$C$18:$C$21</definedName>
+    <definedName name="other">'funcions'!$C$22:$C$25</definedName>
+    <definedName name="row_cells_sum">'funcions'!$C$34:$G$34</definedName>
+    <definedName name="simple_operations">'funcions'!$C$3:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,429 +67,610 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t>Проверка обнолвния связей на другой файл</t>
+  </si>
+  <si>
+    <t>Подтяшгиваем значение одной ячейки из другого файла по именованному диапазону</t>
+  </si>
   <si>
     <t>general_single_cell</t>
   </si>
   <si>
+    <t>Подтягиваем вертикальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
+    <t>general_column_cells</t>
+  </si>
+  <si>
+    <t>Подтягиваем горизонтальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
     <t>general_row_cells</t>
   </si>
   <si>
+    <t>Подтягиваем табличный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
+  </si>
+  <si>
     <t>general_table_cells</t>
   </si>
   <si>
-    <t>Подтягиваем вертикальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Подтягиваем горизонтальный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Подтягиваем табличный диапазон ячеек с использованием формулы массива и заменой пустых ячеек на пустую строку</t>
-  </si>
-  <si>
-    <t>Проверка обнолвния связей на другой файл</t>
+    <t>Диапазоны для ввода значений</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из одной ячейки</t>
+  </si>
+  <si>
+    <t>in_single_cell</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из вертикального диапазона</t>
+  </si>
+  <si>
+    <t>in_column_cells</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из строчного диапазона</t>
+  </si>
+  <si>
+    <t>in_row_cells</t>
+  </si>
+  <si>
+    <t>Диапазон для ручного ввода из табличного диапазона</t>
+  </si>
+  <si>
+    <t>in_table_cells</t>
+  </si>
+  <si>
+    <t>Табличные параметры функции f1</t>
+  </si>
+  <si>
+    <t>Справочник 1</t>
+  </si>
+  <si>
+    <t>Справочник 2</t>
+  </si>
+  <si>
+    <t>Ступенчатая функция</t>
+  </si>
+  <si>
+    <t>Имя элемента</t>
+  </si>
+  <si>
+    <t>атрибут</t>
+  </si>
+  <si>
+    <t>имя элемента</t>
+  </si>
+  <si>
+    <t>другой атрибут</t>
+  </si>
+  <si>
+    <t>Граничные значения агрумента</t>
+  </si>
+  <si>
+    <t>Соответствующие значения функции</t>
+  </si>
+  <si>
+    <t>f1_p1</t>
+  </si>
+  <si>
+    <t>f1_p2</t>
+  </si>
+  <si>
+    <t>f1_v1</t>
+  </si>
+  <si>
+    <t>dir1_name</t>
+  </si>
+  <si>
+    <t>dir1_atr1</t>
+  </si>
+  <si>
+    <t>dir2_name</t>
+  </si>
+  <si>
+    <t>dir2_atr1</t>
+  </si>
+  <si>
+    <t>dir2_atr2</t>
+  </si>
+  <si>
+    <t>f2_p</t>
+  </si>
+  <si>
+    <t>f2_v</t>
+  </si>
+  <si>
+    <t>п1</t>
+  </si>
+  <si>
+    <t>Группа 1</t>
+  </si>
+  <si>
+    <t>Элемент 1</t>
+  </si>
+  <si>
+    <t>п2</t>
+  </si>
+  <si>
+    <t>Группа 2</t>
+  </si>
+  <si>
+    <t>Элемент 2</t>
+  </si>
+  <si>
+    <t>п3</t>
+  </si>
+  <si>
+    <t>Группа 3</t>
+  </si>
+  <si>
+    <t>Элемент 3</t>
+  </si>
+  <si>
+    <t>Группа 4</t>
+  </si>
+  <si>
+    <t>Элемент 4</t>
+  </si>
+  <si>
+    <t>Элемент 5</t>
+  </si>
+  <si>
+    <t>Элемент 6</t>
+  </si>
+  <si>
+    <t>Элемент 7</t>
+  </si>
+  <si>
+    <t>Элемент 8</t>
   </si>
   <si>
     <t>Проверка работы основных функций, используемых в моделях</t>
   </si>
   <si>
-    <t>Простые операции</t>
-  </si>
-  <si>
-    <t>Функция массива (вертикальная)</t>
-  </si>
-  <si>
-    <t>Функция массива (горизонтальная)</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Простые операции
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simple_operations, 0</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>general_single_cell + in_single_cell</t>
+  </si>
+  <si>
+    <t>general_single_cell - in_single_cell</t>
+  </si>
+  <si>
+    <t>general_single_cell * (-3,14)</t>
+  </si>
+  <si>
+    <t>general_single_cell / 0,87</t>
+  </si>
+  <si>
+    <t>TRUNC (ОТБР)</t>
+  </si>
+  <si>
+    <t>ROUNDUP (ОКРУГЛВВЕРХ)</t>
+  </si>
+  <si>
+    <t>ROUNDDOWN (ОКРУГЛВНИЗ)</t>
+  </si>
+  <si>
+    <t>ROUND (ОКРУГЛ)</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t>Логические
+(nr:</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> logical_operations, 1</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>general_single_cell&gt;0</t>
+  </si>
+  <si>
+    <t>general_single_cell&lt;0</t>
+  </si>
+  <si>
+    <t>general_single_cell=0</t>
+  </si>
+  <si>
+    <t>НЕ</t>
+  </si>
+  <si>
+    <t>ИЛИ</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Математические
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>math_operations, 2</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Степень</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Логарифм</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Прочее
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other, 3</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>RAND (СЛЧИС)</t>
+  </si>
+  <si>
+    <t>N (Ч)</t>
+  </si>
+  <si>
+    <t>NUMBERVALUE (ЧЗНАЧ) 1g000d35</t>
+  </si>
+  <si>
+    <t>ЯЧЕЙКА</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Функция массива (вертикальная)
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column_cells_sum, 4</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_column_cells+in_column_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Функция массива (горизонтальная)
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row_cells_sum, 5</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_row_cells+in_row_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t>Функция массива (табличная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_table_cells+in_row_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{general_table_cells+in_table_cells}
+с проверкой на пустую ячейку</t>
+  </si>
+  <si>
+    <t>Агрегирующие функции над массивами</t>
+  </si>
+  <si>
+    <t>SUM (СУММ) general_row_cells</t>
+  </si>
+  <si>
+    <t>PRODUCT (ПРОИЗВЕД) general_row_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMPRODUCT (СУММПРОИЗВ)
+(in_row_cells, general_row_cells)</t>
+  </si>
+  <si>
+    <t>MAX (МАКС) general_row_cells</t>
+  </si>
+  <si>
+    <t>MIN (МИН) general_row_cells</t>
+  </si>
+  <si>
+    <t>AVERAGE (СРЗНАЧ) general_row_cells</t>
+  </si>
+  <si>
+    <t>SMALL (НАИМЕНЬШИЙ) (general_row_cells,2)</t>
+  </si>
+  <si>
+    <t>LARGE (НАИБОЛЬШИЙ) (general_row_cells,2)</t>
+  </si>
+  <si>
+    <t>COUNT (СЧЁТ) general_row_cells</t>
+  </si>
+  <si>
+    <t>COUNTA (СЧЁТЗ) general_row_cells</t>
+  </si>
+  <si>
+    <t>Аугреация с условиями</t>
+  </si>
+  <si>
+    <t>SUMIF (СУММЕСЛИ) (f1_p1,"п1",f1_v1)</t>
+  </si>
+  <si>
+    <t>SUMIFS (СУММЕСЛИМН) (f1_v1,f1_p1,"п1",f1_p2,"&gt;1")</t>
+  </si>
+  <si>
+    <t>СЧЁТЕСЛИ</t>
+  </si>
+  <si>
+    <t>СЧЁТЕСЛИМН</t>
+  </si>
+  <si>
+    <t>Прочие функции над массивами</t>
+  </si>
+  <si>
+    <t>ВПР</t>
+  </si>
+  <si>
+    <t>Расбота со строками</t>
+  </si>
+  <si>
+    <t>конкатенация</t>
+  </si>
+  <si>
+    <t>ПОДСТАВИТЬ</t>
+  </si>
+  <si>
+    <t>ПРАВСИМВ</t>
+  </si>
+  <si>
+    <t>ЛЕВСИМВ</t>
+  </si>
+  <si>
+    <t>НАЙТИ</t>
+  </si>
+  <si>
+    <t>Работа с массивами</t>
+  </si>
+  <si>
+    <t>COLUMNS (ЧИСЛСТОЛБ) general_table_cells</t>
+  </si>
+  <si>
+    <t>ROWS (ЧСТРОК) general_table_cells</t>
+  </si>
+  <si>
+    <t>INDEX (ИНДЕКС) (general_table_cells,2,2)</t>
+  </si>
+  <si>
+    <t>ПОИСКПОЗ</t>
+  </si>
+  <si>
+    <t>СМЕЩ</t>
+  </si>
+  <si>
+    <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>Прочие используемые</t>
+  </si>
+  <si>
+    <t>ДВССЫЛ</t>
+  </si>
+  <si>
+    <t>ROW (СТРОКА)</t>
+  </si>
+  <si>
+    <t>COLUMN (СТОЛБЕЦ)</t>
   </si>
   <si>
     <t>Проверка обработки ошибок</t>
   </si>
   <si>
+    <t>Результат с ошибкой</t>
+  </si>
+  <si>
+    <t>Проверочные функции</t>
+  </si>
+  <si>
+    <t>ПРОВЕРКА</t>
+  </si>
+  <si>
+    <t>ЕСЛИОШИБКА</t>
+  </si>
+  <si>
+    <t>ЕОШ</t>
+  </si>
+  <si>
+    <t>ЕНД</t>
+  </si>
+  <si>
+    <t>ЕПУСТО</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>ошибка найдена</t>
+  </si>
+  <si>
+    <t>#ДЕЛ/0!</t>
+  </si>
+  <si>
+    <t>#DIV/0!</t>
+  </si>
+  <si>
     <t>#ЗНАЧ!</t>
   </si>
   <si>
-    <t>#ДЕЛ/0!</t>
-  </si>
-  <si>
     <t>#ССЫЛКА!</t>
   </si>
   <si>
+    <t>#REF!</t>
+  </si>
+  <si>
     <t>#ИМЯ?</t>
   </si>
   <si>
-    <t>in_single_cell</t>
-  </si>
-  <si>
-    <t>in_row_cells</t>
-  </si>
-  <si>
-    <t>Диапазоны для ввода значений</t>
-  </si>
-  <si>
-    <t>in_table_cells</t>
-  </si>
-  <si>
-    <t>Подтяшгиваем значение одной ячейки из другого файла по именованному диапазону</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из одной ячейки</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из строчного диапазона</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из вертикального диапазона</t>
-  </si>
-  <si>
-    <t>Диапазон для ручного ввода из табличного диапазона</t>
-  </si>
-  <si>
-    <t>{general_collumn_cells+in_collumn_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_row_cells+in_row_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_table_cells+in_row_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>{general_table_cells+in_table_cells}
-с проверкой на пустую ячейку</t>
-  </si>
-  <si>
-    <t>Функция массива (табличная)</t>
-  </si>
-  <si>
-    <t>Табличные параметры функции f1</t>
-  </si>
-  <si>
-    <t>f1_p1</t>
-  </si>
-  <si>
-    <t>f1_p2</t>
-  </si>
-  <si>
-    <t>f1_v1</t>
-  </si>
-  <si>
-    <t>Справочник 1</t>
-  </si>
-  <si>
-    <t>Справочник 2</t>
-  </si>
-  <si>
-    <t>атрибут</t>
-  </si>
-  <si>
-    <t>dir1_name</t>
-  </si>
-  <si>
-    <t>dir1_atr1</t>
-  </si>
-  <si>
-    <t>dir2_name</t>
-  </si>
-  <si>
-    <t>dir2_atr1</t>
-  </si>
-  <si>
-    <t>dir2_atr2</t>
-  </si>
-  <si>
-    <t>Имя элемента</t>
-  </si>
-  <si>
-    <t>другой атрибут</t>
-  </si>
-  <si>
-    <t>Элемент 1</t>
-  </si>
-  <si>
-    <t>Элемент 2</t>
-  </si>
-  <si>
-    <t>Элемент 3</t>
-  </si>
-  <si>
-    <t>Элемент 4</t>
-  </si>
-  <si>
-    <t>Элемент 5</t>
-  </si>
-  <si>
-    <t>Элемент 6</t>
-  </si>
-  <si>
-    <t>Элемент 7</t>
-  </si>
-  <si>
-    <t>Элемент 8</t>
-  </si>
-  <si>
-    <t>Группа 1</t>
-  </si>
-  <si>
-    <t>Группа 2</t>
-  </si>
-  <si>
-    <t>Группа 3</t>
-  </si>
-  <si>
-    <t>Группа 4</t>
-  </si>
-  <si>
-    <t>Математические</t>
-  </si>
-  <si>
-    <t>Степень</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>LN</t>
-  </si>
-  <si>
-    <t>Логарифм</t>
-  </si>
-  <si>
-    <t>СЧЁТЕСЛИМН</t>
-  </si>
-  <si>
-    <t>СЧЁТЕСЛИ</t>
-  </si>
-  <si>
-    <t>ЕСЛИОШИБКА</t>
-  </si>
-  <si>
-    <t>ЕОШ</t>
-  </si>
-  <si>
-    <t>ЕНД</t>
-  </si>
-  <si>
-    <t>ЕПУСТО</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>1&gt;0</t>
-  </si>
-  <si>
-    <t>1&lt;0</t>
-  </si>
-  <si>
-    <t>1=0</t>
-  </si>
-  <si>
-    <t>ПОИСКПОЗ</t>
-  </si>
-  <si>
-    <t>СМЕЩ</t>
-  </si>
-  <si>
-    <t>ДВССЫЛ</t>
-  </si>
-  <si>
-    <t>НЕ</t>
-  </si>
-  <si>
-    <t>ИЛИ</t>
-  </si>
-  <si>
-    <t>И</t>
-  </si>
-  <si>
-    <t>ПОДСТАВИТЬ</t>
-  </si>
-  <si>
-    <t>ПРАВСИМВ</t>
-  </si>
-  <si>
-    <t>ЛЕВСИМВ</t>
-  </si>
-  <si>
-    <t>ЯЧЕЙКА</t>
-  </si>
-  <si>
-    <t>НАЙТИ</t>
-  </si>
-  <si>
-    <t>значение  без ошибки</t>
-  </si>
-  <si>
-    <t>Проверочные функции</t>
-  </si>
-  <si>
-    <t>Результат с ошибкой</t>
-  </si>
-  <si>
-    <t>ошибка найдена</t>
-  </si>
-  <si>
-    <t>ПРОВЕРКА</t>
-  </si>
-  <si>
-    <t>п1</t>
-  </si>
-  <si>
-    <t>п2</t>
-  </si>
-  <si>
-    <t>п3</t>
-  </si>
-  <si>
-    <t>Агрегирующие функции над массивами</t>
-  </si>
-  <si>
-    <t>Аугреация с условиями</t>
-  </si>
-  <si>
-    <t>Прочие функции над массивами</t>
-  </si>
-  <si>
-    <t>ВПР</t>
-  </si>
-  <si>
-    <t>Работа с массивами</t>
-  </si>
-  <si>
-    <t>Прочее</t>
-  </si>
-  <si>
-    <t>Расбота со строками</t>
-  </si>
-  <si>
-    <t>конкатенация</t>
-  </si>
-  <si>
-    <t>Логические</t>
-  </si>
-  <si>
-    <t>Прочие используемые</t>
-  </si>
-  <si>
-    <t>Ступенчатая функция</t>
-  </si>
-  <si>
-    <t>имя элемента</t>
-  </si>
-  <si>
-    <t>f2_p</t>
-  </si>
-  <si>
-    <t>f2_v</t>
-  </si>
-  <si>
-    <t>Граничные значения агрумента</t>
-  </si>
-  <si>
-    <t>Соответствующие значения функции</t>
-  </si>
-  <si>
-    <t>general_column_cells</t>
-  </si>
-  <si>
-    <t>in_column_cells</t>
-  </si>
-  <si>
-    <t>general_single_cell - in_single_cell</t>
-  </si>
-  <si>
-    <t>general_single_cell + in_single_cell</t>
-  </si>
-  <si>
-    <t>general_single_cell * (-3,14)</t>
-  </si>
-  <si>
-    <t>general_single_cell / 0,87</t>
-  </si>
-  <si>
-    <t>TRUNC (ОТБР)</t>
-  </si>
-  <si>
-    <t>ROUNDUP (ОКРУГЛВВЕРХ)</t>
-  </si>
-  <si>
-    <t>ROUNDDOWN (ОКРУГЛВНИЗ)</t>
-  </si>
-  <si>
-    <t>ROUND (ОКРУГЛ)</t>
-  </si>
-  <si>
-    <t>AVERAGE (СРЗНАЧ) general_row_cells</t>
-  </si>
-  <si>
-    <t>MIN (МИН) general_row_cells</t>
-  </si>
-  <si>
-    <t>MAX (МАКС) general_row_cells</t>
-  </si>
-  <si>
-    <t>PRODUCT (ПРОИЗВЕД) general_row_cells</t>
-  </si>
-  <si>
-    <t>SUM (СУММ) general_row_cells</t>
-  </si>
-  <si>
-    <t>SMALL (НАИМЕНЬШИЙ) (general_row_cells,2)</t>
-  </si>
-  <si>
-    <t>LARGE (НАИБОЛЬШИЙ) (general_row_cells,2)</t>
-  </si>
-  <si>
-    <t>SUMPRODUCT (СУММПРОИЗВ)
-(in_row_cells, general_row_cells)</t>
-  </si>
-  <si>
-    <t>COLUMN (СТОЛБЕЦ)</t>
-  </si>
-  <si>
-    <t>ROW (СТРОКА)</t>
-  </si>
-  <si>
-    <t>ROWS (ЧСТРОК) general_table_cells</t>
-  </si>
-  <si>
-    <t>INDEX (ИНДЕКС) (general_table_cells,2,2)</t>
+    <t>#NAME?</t>
   </si>
   <si>
     <t>значение без ошибки</t>
   </si>
   <si>
-    <t>RAND (СЛЧИС)</t>
-  </si>
-  <si>
-    <t>NUMBERVALUE (ЧЗНАЧ) 1g000d35</t>
-  </si>
-  <si>
-    <t>N (Ч)</t>
-  </si>
-  <si>
-    <t>COUNT (СЧЁТ) general_row_cells</t>
-  </si>
-  <si>
-    <t>COUNTA (СЧЁТЗ) general_row_cells</t>
-  </si>
-  <si>
-    <t>SUMIF (СУММЕСЛИ) (f1_p1,"п1",f1_v1)</t>
-  </si>
-  <si>
-    <t>SUMIFS (СУММЕСЛИМН) (f1_v1,f1_p1,"п1",f1_p2,"&gt;1")</t>
-  </si>
-  <si>
-    <t>COLUMNS (ЧИСЛСТОЛБ) general_table_cells</t>
+    <t xml:space="preserve">значение  без ошибки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +684,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,20 +693,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,174 +883,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,198 +1334,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1" style="6"/>
+    <col min="2" max="2" width="27" customWidth="1" style="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" ht="30">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="53">
+      <c r="D12" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="53">
+      <c r="E12" s="31">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="53">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53">
-        <v>10</v>
-      </c>
-      <c r="F12" s="53">
-        <v>11</v>
-      </c>
-      <c r="G12" s="53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="53">
+      <c r="C14" s="31">
         <v>13</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="31">
         <v>14</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="31">
         <v>15</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="31">
         <v>16</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="31">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="53">
+    <row r="15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31">
         <v>18</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="31">
         <v>19</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31">
         <v>21</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="53">
+    <row r="16">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="31">
         <v>23</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="31">
         <v>24</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="31">
         <v>25</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="31">
         <v>26</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="31">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="53">
+    <row r="17">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="31">
         <v>28</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="31">
         <v>29</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="31">
         <v>30</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="31">
         <v>31</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="31">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1365,9 +1545,9 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1376,7 +1556,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1385,12 +1565,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" ht="30">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -1400,7 +1580,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1409,12 +1589,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>107</v>
+    <row r="5">
+      <c r="A5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="16">
         <v>5</v>
@@ -1424,9 +1604,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
+    <row r="6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16">
         <v>4</v>
       </c>
@@ -1435,9 +1615,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
+    <row r="7">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16">
         <v>3</v>
       </c>
@@ -1446,9 +1626,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30"/>
+    <row r="8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="16">
         <v>2</v>
       </c>
@@ -1457,9 +1637,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
+    <row r="9">
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="16">
         <v>1</v>
       </c>
@@ -1468,9 +1648,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
+    <row r="10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="16">
         <v>0</v>
       </c>
@@ -1479,7 +1659,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -1488,12 +1668,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" ht="30">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="16">
         <v>9</v>
@@ -1511,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1520,12 +1700,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>19</v>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -1543,9 +1723,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="30"/>
+    <row r="15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="16">
         <v>1</v>
       </c>
@@ -1562,9 +1742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30"/>
+    <row r="16">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="16">
         <v>1</v>
       </c>
@@ -1581,9 +1761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="30"/>
+    <row r="17">
+      <c r="A17" s="38"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="16">
         <v>1</v>
       </c>
@@ -1600,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1610,13 +1790,14 @@
       <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1625,122 +1806,123 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="13" width="24.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15" customWidth="1" style="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1" style="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
+    <col min="8" max="10" width="24" customWidth="1" style="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
+    <col min="12" max="13" width="24.85546875" customWidth="1" style="1"/>
+    <col min="14" max="16" width="9.140625" customWidth="1" style="1"/>
+    <col min="17" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="E1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="H1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="L1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="39" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="H1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="L1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" ht="39" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="19" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F4" s="16">
         <v>1000</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J4" s="16">
         <v>4556</v>
@@ -1752,9 +1934,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
@@ -1763,16 +1945,16 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F5" s="16">
         <v>2000</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J5" s="16">
         <v>3</v>
@@ -1784,9 +1966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
@@ -1795,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16">
         <v>3000</v>
@@ -1804,7 +1986,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J6" s="16">
         <v>44</v>
@@ -1816,9 +1998,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
@@ -1827,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16">
         <v>4000</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J7" s="16">
         <v>354</v>
@@ -1848,9 +2030,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="16" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
@@ -1859,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J8" s="16">
         <v>4</v>
@@ -1874,9 +2056,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B9" s="16">
         <v>2</v>
@@ -1885,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J9" s="16">
         <v>34</v>
@@ -1900,9 +2082,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="16" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B10" s="16">
         <v>3</v>
@@ -1911,18 +2093,18 @@
         <v>91</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J10" s="16">
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="16" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16">
         <v>3</v>
@@ -1931,18 +2113,18 @@
         <v>92</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11" s="16">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B12" s="16">
         <v>3</v>
@@ -1952,15 +2134,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="L1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1968,369 +2151,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782C8B9E-9A7C-409C-878F-8D9989F6D4A4}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" style="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" ht="30">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C3" s="13">
         <f>general_single_cell + in_single_cell</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C4" s="13">
         <f>general_single_cell - in_single_cell</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C5" s="13">
         <f>general_single_cell * (-3.14)</f>
-        <v>-3.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+        <v>-62.800000000000004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13">
         <f>general_single_cell / 0.87</f>
-        <v>1.1494252873563218</v>
+        <v>22.988505747126435</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+    <row r="7">
+      <c r="A7" s="37"/>
       <c r="B7" s="11" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C7" s="13">
         <f>TRUNC(C6,1)</f>
-        <v>1.1000000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8">
+      <c r="A8" s="37"/>
       <c r="B8" s="11" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C8" s="13">
         <f>ROUNDUP(C6,1)</f>
-        <v>1.2000000000000002</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+    <row r="9">
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13">
         <f>ROUNDDOWN(C7,1)</f>
-        <v>1.1000000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+    <row r="10">
+      <c r="A10" s="37"/>
       <c r="B10" s="11" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C10" s="13">
         <f>ROUND(C6,5)</f>
-        <v>1.14943</v>
+        <v>22.98851</v>
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+    <row r="11">
+      <c r="A11" s="37"/>
       <c r="B11" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="13">
         <f>ABS(C5)</f>
-        <v>3.14</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>98</v>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="b">
+        <f>general_single_cell&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="37"/>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="13" t="b">
+        <f>general_single_cell&lt;0</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="37"/>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="b">
+        <f>general_single_cell=0</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="13" t="b">
-        <f>1&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="13" t="b">
-        <f>1&lt;0</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="13" t="b">
-        <f>1=0</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="C15" s="13" t="b">
         <f>NOT(1=0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+    <row r="16">
+      <c r="A16" s="37"/>
       <c r="B16" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" s="13" t="b">
         <f>OR(1=0,1&gt;0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17">
+      <c r="A17" s="38"/>
       <c r="B17" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="13" t="b">
         <f>AND(1=0,1&gt;0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>56</v>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C18" s="13">
-        <f>12^2</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+        <f>general_single_cell^2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="35"/>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C19" s="13">
-        <f>EXP(12)</f>
-        <v>162754.79141900392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+        <f>EXP(general_single_cell)</f>
+        <v>485165195.4097903</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="35"/>
       <c r="B20" s="12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C20" s="13">
         <f>LOG(C18,12)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+        <v>2.411142707360513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="35"/>
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C21" s="13">
         <f>LN(C19)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C22" s="13">
-        <f ca="1">RAND()</f>
-        <v>0.99599582654356478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+        <f>RAND()</f>
+        <v>0.9173201145219244</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="41"/>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C23" s="13">
         <f>N(1&gt;0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24">
+      <c r="A24" s="41"/>
       <c r="B24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="13">
-        <f>_xlfn.NUMBERVALUE("1g000d35", "d", "g")</f>
-        <v>1000.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="C24" s="13" t="e">
+        <f>_xlfn.NUMBERVALUE("1g000d"&amp;general_single_cell, "d", "g")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="42"/>
       <c r="B25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="52" t="str">
-        <f ca="1">CELL("filename")</f>
-        <v>C:\Users\Evgeny\Desktop\testNamedRange\[test_calc.xlsx]funcions</v>
+      <c r="C25" s="30" t="e">
+        <f>CELL("filename")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="21"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>25</v>
+    <row r="27">
+      <c r="A27" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="17">
-        <f t="array" ref="C27:C32">IF(general_column_cells="",0,general_column_cells)+in_column_cells</f>
+        <f ref="C27:C32" t="array">IF(general_column_cells="",0,general_column_cells)+in_column_cells</f>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="44"/>
+    <row r="28">
+      <c r="A28" s="35"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="44"/>
+    <row r="29">
+      <c r="A29" s="35"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="44"/>
+    <row r="30">
+      <c r="A30" s="35"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="44"/>
+    <row r="31">
+      <c r="A31" s="35"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="45"/>
+    <row r="32">
+      <c r="A32" s="35"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" ht="33.75">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C34" s="17">
-        <f t="array" ref="C34:G34">IF(general_row_cells="",0,general_row_cells)+in_row_cells</f>
-        <v>17</v>
+        <f ref="C34:G34" t="array">IF(general_row_cells="",0,general_row_cells)+in_row_cells</f>
+        <v>12</v>
       </c>
       <c r="D34" s="17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" s="17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="17">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G34" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>27</v>
+    <row r="36">
+      <c r="A36" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="C36" s="17">
-        <f t="array" ref="C36:G39">IF(general_table_cells="",0,general_table_cells)+in_row_cells</f>
+        <f ref="C36:G39" t="array">IF(general_table_cells="",0,general_table_cells)+in_row_cells</f>
         <v>22</v>
       </c>
       <c r="D36" s="17">
@@ -2346,9 +2530,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="44"/>
+    <row r="37">
+      <c r="A37" s="37"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="17">
         <v>27</v>
       </c>
@@ -2365,9 +2549,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="44"/>
+    <row r="38">
+      <c r="A38" s="37"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="17">
         <v>32</v>
       </c>
@@ -2384,9 +2568,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="45"/>
+    <row r="39">
+      <c r="A39" s="37"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="17">
         <v>37</v>
       </c>
@@ -2403,13 +2587,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="43" t="s">
-        <v>28</v>
+    <row r="40">
+      <c r="A40" s="37"/>
+      <c r="B40" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="17">
-        <f t="array" ref="C40:G43">IF(general_table_cells="",0,general_table_cells)+in_table_cells</f>
+        <f ref="C40:G43" t="array">IF(general_table_cells="",0,general_table_cells)+in_table_cells</f>
         <v>14</v>
       </c>
       <c r="D40" s="17">
@@ -2425,9 +2609,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="44"/>
+    <row r="41">
+      <c r="A41" s="37"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="17">
         <v>19</v>
       </c>
@@ -2444,9 +2628,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="44"/>
+    <row r="42">
+      <c r="A42" s="37"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="17">
         <v>24</v>
       </c>
@@ -2463,9 +2647,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="45"/>
+    <row r="43">
+      <c r="A43" s="38"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="17">
         <v>29</v>
       </c>
@@ -2482,253 +2666,253 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>90</v>
+    <row r="45">
+      <c r="A45" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C45" s="17">
         <f>SUM(general_row_cells)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="48"/>
       <c r="B46" s="12" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C46" s="17">
         <f>PRODUCT(general_row_cells)</f>
-        <v>10560</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" ht="30">
+      <c r="A47" s="48"/>
       <c r="B47" s="12" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C47" s="17">
         <f>SUMPRODUCT(in_row_cells,general_row_cells)</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="48"/>
       <c r="B48" s="12" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C48" s="17">
         <f>MAX(general_row_cells)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="48"/>
       <c r="B49" s="12" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C49" s="17">
         <f>MIN(general_row_cells)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="48"/>
       <c r="B50" s="12" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C50" s="17">
         <f>AVERAGE(general_row_cells)</f>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="48"/>
       <c r="B51" s="12" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C51" s="17">
         <f>SMALL(general_row_cells,2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="48"/>
       <c r="B52" s="12" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C52" s="17">
         <f>LARGE(general_row_cells,2)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="48"/>
       <c r="B53" s="12" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C53" s="17">
         <f>COUNT(general_row_cells)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
+    <row r="54">
+      <c r="A54" s="49"/>
       <c r="B54" s="12" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C54" s="17">
         <f>COUNTA(general_row_cells)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>91</v>
+    <row r="55">
+      <c r="A55" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C55" s="17">
         <f>SUMIF(f1_p1,"п1",f1_v1)</f>
         <v>93.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+    <row r="56">
+      <c r="A56" s="48"/>
       <c r="B56" s="12" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C56" s="17">
         <f>SUMIFS(f1_v1,f1_p1,"п1",f1_p2,"&gt;1")</f>
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+    <row r="57">
+      <c r="A57" s="48"/>
       <c r="B57" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C57" s="17">
         <f>COUNTIF(f1_p1,"п1")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58">
+      <c r="A58" s="49"/>
       <c r="B58" s="12" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C58" s="17">
         <f>COUNTIFS(f1_p1,"п1",f1_p2,"&gt;1")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C59" s="17">
         <f>VLOOKUP("Группа 3",dir_1,2,FALSE)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>96</v>
+    <row r="61" ht="67.5" customHeight="1">
+      <c r="A61" s="50" t="s">
+        <v>106</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C61" s="13" t="str">
         <f>"начало строки "&amp;"середина"&amp;" конец строки"</f>
         <v>начало строки середина конец строки</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" ht="67.5" customHeight="1">
+      <c r="A62" s="50"/>
       <c r="B62" s="12" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C62" s="13" t="str">
         <f>SUBSTITUTE("а1б1в1г1д1е1","1","")</f>
         <v>абвгде</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" ht="67.5" customHeight="1">
+      <c r="A63" s="50"/>
       <c r="B63" s="12" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C63" s="13" t="str">
         <f>RIGHT("абвгд",3)</f>
         <v>вгд</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64">
+      <c r="A64" s="50"/>
       <c r="B64" s="12" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C64" s="13" t="str">
         <f>LEFT("абвгд",3)</f>
         <v>абв</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+    <row r="65">
+      <c r="A65" s="50"/>
       <c r="B65" s="12" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C65" s="13">
         <f>FIND("а","1234а67890иииаиии",10)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
-        <v>94</v>
+    <row r="67">
+      <c r="A67" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C67" s="17">
         <f>COLUMNS(general_table_cells)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68">
+      <c r="A68" s="43"/>
       <c r="B68" s="12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C68" s="17">
         <f>ROWS(general_table_cells)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69">
+      <c r="A69" s="43"/>
       <c r="B69" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C69" s="17">
         <f>INDEX(general_table_cells,2,2)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70">
+      <c r="A70" s="43"/>
       <c r="B70" s="12" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C70" s="17">
         <f>MATCH(D70,f2_p,1)</f>
@@ -2738,50 +2922,45 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="29">
-        <f t="array" aca="1" ref="C71:E72" ca="1">OFFSET(general_table_cells,1,1,2,3)</f>
-        <v>19</v>
-      </c>
-      <c r="D71" s="17">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="17">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="29">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="D72" s="17">
-        <f ca="1"/>
-        <v>25</v>
-      </c>
-      <c r="E72" s="17">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>99</v>
+    <row r="71">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="29" t="e">
+        <f ref="C71:E72" t="array">OFFSET(general_table_cells,1,1,2,3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="47" t="s">
+        <v>119</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="56" t="str">
-        <f ca="1">INDEX(INDIRECT("f"&amp;D74&amp;"_p"&amp;E74),1,1)</f>
-        <v>п1</v>
+        <v>120</v>
+      </c>
+      <c r="C74" s="33" t="e">
+        <f>INDEX(INDIRECT("f"&amp;D74&amp;"_p"&amp;E74),1,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D74" s="27">
         <v>1</v>
@@ -2790,20 +2969,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+    <row r="75">
+      <c r="A75" s="48"/>
       <c r="B75" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C75" s="17">
         <f>ROW()</f>
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+    <row r="76">
+      <c r="A76" s="49"/>
       <c r="B76" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" s="17">
         <f>COLUMN()</f>
@@ -2811,7 +2990,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A67:A72"/>
@@ -2822,14 +3006,10 @@
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2843,87 +3023,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="18" customWidth="1"/>
-    <col min="4" max="7" width="23.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="18"/>
-    <col min="9" max="13" width="24.140625" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1" style="18"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" style="18"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1" style="18"/>
+    <col min="4" max="7" width="23.28515625" customWidth="1" style="18"/>
+    <col min="8" max="8" width="9.140625" customWidth="1" style="18"/>
+    <col min="9" max="13" width="24.140625" customWidth="1" style="18"/>
+    <col min="14" max="16" width="9.140625" customWidth="1" style="18"/>
+    <col min="17" max="16384" width="9.140625" customWidth="1" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="27" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="51" t="s">
-        <v>86</v>
+      <c r="C1" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="50"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="24" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="51"/>
+        <v>130</v>
+      </c>
+      <c r="H2" s="56"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C3" s="22" t="e">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="22">
         <f>MATCH("Точно отсутствующее значение",general_row_cells,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
         <f>IFERROR(C3,"ошибка найдена")</f>
-        <v>ошибка найдена</v>
+        <v>0</v>
       </c>
       <c r="E3" s="25" t="b">
         <f>ISERR(C3)</f>
@@ -2931,18 +3112,18 @@
       </c>
       <c r="F3" s="25" t="b">
         <f>ISNA(C3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="25" t="b">
         <f>ISBLANK(C3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="23" t="e">
-        <v>#N/A</v>
+      <c r="H3" s="56"/>
+      <c r="I3" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K3" s="23" t="b">
         <v>0</v>
@@ -2954,37 +3135,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+    <row r="4">
+      <c r="A4" s="52"/>
       <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="C4" s="22" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D4" s="25" t="str">
-        <f t="shared" ref="D4:D8" si="0">IFERROR(C4,"ошибка найдена")</f>
+        <f ref="D4:D8" t="shared" si="0">IFERROR(C4,"ошибка найдена")</f>
         <v>ошибка найдена</v>
       </c>
       <c r="E4" s="25" t="b">
-        <f t="shared" ref="E4:E8" si="1">ISERR(C4)</f>
+        <f ref="E4:E8" t="shared" si="1">ISERR(C4)</f>
         <v>1</v>
       </c>
       <c r="F4" s="25" t="b">
-        <f t="shared" ref="F4:F8" si="2">ISNA(C4)</f>
+        <f ref="F4:F8" t="shared" si="2">ISNA(C4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="25" t="b">
-        <f t="shared" ref="G4:G9" si="3">ISBLANK(C4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="23" t="e">
-        <v>#DIV/0!</v>
+        <f ref="G4:G9" t="shared" si="3">ISBLANK(C4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K4" s="23" t="b">
         <v>1</v>
@@ -2996,22 +3177,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+    <row r="5">
+      <c r="A5" s="52"/>
       <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="22" t="e">
+        <v>135</v>
+      </c>
+      <c r="C5" s="22">
         <f>VALUE("")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>ошибка найдена</v>
+        <v>0</v>
       </c>
       <c r="E5" s="25" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="25" t="b">
         <f t="shared" si="2"/>
@@ -3021,12 +3202,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="23" t="e">
-        <v>#VALUE!</v>
+      <c r="H5" s="56"/>
+      <c r="I5" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K5" s="23" t="b">
         <v>1</v>
@@ -3038,10 +3219,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+    <row r="6">
+      <c r="A6" s="52"/>
       <c r="B6" s="15" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C6" s="22" t="e">
         <f>INDEX(general_row_cells,99)</f>
@@ -3063,12 +3244,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="23" t="e">
-        <v>#REF!</v>
+      <c r="H6" s="56"/>
+      <c r="I6" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K6" s="23" t="b">
         <v>1</v>
@@ -3080,10 +3261,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+    <row r="7">
+      <c r="A7" s="53"/>
       <c r="B7" s="15" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C7" s="22" t="e">
         <f>unexist_name</f>
@@ -3105,12 +3286,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="23" t="e">
-        <v>#NAME?</v>
+      <c r="H7" s="56"/>
+      <c r="I7" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="K7" s="23" t="b">
         <v>1</v>
@@ -3122,9 +3303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="C8" s="26" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3142,12 +3323,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="23" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="K8" s="23" t="b">
         <v>0</v>
@@ -3159,12 +3340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="G9" s="25" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -3174,12 +3355,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/NamedRangeTestApp/Data/testSet/test_calc.xlsx
+++ b/src/NamedRangeTestApp/Data/testSet/test_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NamedRangeTestApp\src\NamedRangeTestApp\Data\testSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA473A9-F5A5-44D2-95C7-04F2BEA4F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05114C17-21EF-452A-8F18-BD2817BD378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="errors" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="aggregation_functions">'funcions'!$C$45:$C$54</definedName>
+    <definedName name="aggregation_functions_with_conditions">'funcions'!$C$55:$C$58</definedName>
+    <definedName name="arrays_sum">'funcions'!$C$36:$G$43</definedName>
+    <definedName name="column">'funcions'!$C$75:$E$75</definedName>
     <definedName name="column_cells_sum">'funcions'!$C$27:$C$32</definedName>
     <definedName name="dir_1">'f_params'!$E$4:$F$7</definedName>
     <definedName name="dir1_atr1">'f_params'!$F$4:$F$7</definedName>
@@ -44,10 +48,14 @@
     <definedName name="logical_operations">'funcions'!$C$12:$C$17</definedName>
     <definedName name="math_operations">'funcions'!$C$18:$C$21</definedName>
     <definedName name="other">'funcions'!$C$22:$C$25</definedName>
+    <definedName name="other_array_functions">'funcions'!$C$59</definedName>
+    <definedName name="others">'funcions'!$C$74</definedName>
+    <definedName name="row">'funcions'!$C$76:$C$78</definedName>
     <definedName name="row_cells_sum">'funcions'!$C$34:$G$34</definedName>
     <definedName name="simple_operations">'funcions'!$C$3:$C$11</definedName>
+    <definedName name="strings">'funcions'!$C$61:$C$65</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" calcMode="manual" calcOnSave="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Проверка обнолвния связей на другой файл</t>
   </si>
@@ -260,6 +268,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(все работает)</t>
+    </r>
   </si>
   <si>
     <t>general_single_cell + in_single_cell</t>
@@ -318,6 +338,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(все работает)</t>
+    </r>
   </si>
   <si>
     <t>general_single_cell&gt;0</t>
@@ -367,6 +399,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ (все работает)</t>
+    </r>
   </si>
   <si>
     <t>Степень</t>
@@ -410,6 +454,41 @@
       </rPr>
       <t>)</t>
     </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не работает @CELL и NUMBERVALUE</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>RAND (СЛЧИС)</t>
@@ -419,6 +498,9 @@
   </si>
   <si>
     <t>NUMBERVALUE (ЧЗНАЧ) 1g000d35</t>
+  </si>
+  <si>
+    <t>1g0080d37</t>
   </si>
   <si>
     <t>ЯЧЕЙКА</t>
@@ -453,6 +535,41 @@
       </rPr>
       <t>)</t>
     </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>считает только первую ячейку</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">{general_column_cells+in_column_cells}
@@ -483,6 +600,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>)
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>считает только первую ячейку</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
@@ -491,7 +630,58 @@
 с проверкой на пустую ячейку</t>
   </si>
   <si>
-    <t>Функция массива (табличная)</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Функция массива (табличная)
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arrays_sum, 6</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не тестировал</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">{general_table_cells+in_row_cells}
@@ -502,7 +692,33 @@
 с проверкой на пустую ячейку</t>
   </si>
   <si>
-    <t>Агрегирующие функции над массивами</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Агрегирующие функции над массивами (все работает)
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aggregation_functions, 7</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(все работает)</t>
+    </r>
   </si>
   <si>
     <t>SUM (СУММ) general_row_cells</t>
@@ -536,7 +752,33 @@
     <t>COUNTA (СЧЁТЗ) general_row_cells</t>
   </si>
   <si>
-    <t>Аугреация с условиями</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Аугреация с условиями
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aggregation_functions_with_conditions, 8</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(все рабоатет)</t>
+    </r>
   </si>
   <si>
     <t>SUMIF (СУММЕСЛИ) (f1_p1,"п1",f1_v1)</t>
@@ -551,31 +793,166 @@
     <t>СЧЁТЕСЛИМН</t>
   </si>
   <si>
-    <t>Прочие функции над массивами</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Прочие функции над массивами
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other_array_functions, 9</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(работает)</t>
+    </r>
   </si>
   <si>
     <t>ВПР</t>
   </si>
   <si>
-    <t>Расбота со строками</t>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Расбота со строками
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strings, 10</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIND работатет странно</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>конкатенация</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>ПОДСТАВИТЬ</t>
   </si>
   <si>
+    <t>а1б1в1г1д1е1test</t>
+  </si>
+  <si>
     <t>ПРАВСИМВ</t>
   </si>
   <si>
+    <t>asdfase</t>
+  </si>
+  <si>
     <t>ЛЕВСИМВ</t>
   </si>
   <si>
+    <t>qasdfase</t>
+  </si>
+  <si>
     <t>НАЙТИ</t>
   </si>
   <si>
-    <t>Работа с массивами</t>
+    <t>1а23467а8а9а0аиаииаииаи</t>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Работа с массивами
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arrays, 11</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не тестировал</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>COLUMNS (ЧИСЛСТОЛБ) general_table_cells</t>
@@ -593,58 +970,105 @@
     <t>СМЕЩ</t>
   </si>
   <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t xml:space="preserve">Прочие используемые
+(nr: </t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>others - 12, column - 13, row - 14</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+(</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 - не работает</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 13 и 14 - ок)</t>
+    </r>
+  </si>
+  <si>
+    <t>ДВССЫЛ</t>
+  </si>
+  <si>
+    <t>COLUMN (СТОЛБЕЦ)</t>
+  </si>
+  <si>
+    <t>ROW (сторка)</t>
+  </si>
+  <si>
+    <t>Проверка обработки ошибок</t>
+  </si>
+  <si>
+    <t>Результат с ошибкой</t>
+  </si>
+  <si>
+    <t>Проверочные функции</t>
+  </si>
+  <si>
+    <t>ПРОВЕРКА</t>
+  </si>
+  <si>
+    <t>ЕСЛИОШИБКА</t>
+  </si>
+  <si>
+    <t>ЕОШ</t>
+  </si>
+  <si>
+    <t>ЕНД</t>
+  </si>
+  <si>
+    <t>ЕПУСТО</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>ошибка найдена</t>
+  </si>
+  <si>
+    <t>#ДЕЛ/0!</t>
+  </si>
+  <si>
+    <t>#DIV/0!</t>
+  </si>
+  <si>
+    <t>#ЗНАЧ!</t>
+  </si>
+  <si>
     <t>#VALUE!</t>
-  </si>
-  <si>
-    <t>Прочие используемые</t>
-  </si>
-  <si>
-    <t>ДВССЫЛ</t>
-  </si>
-  <si>
-    <t>ROW (СТРОКА)</t>
-  </si>
-  <si>
-    <t>COLUMN (СТОЛБЕЦ)</t>
-  </si>
-  <si>
-    <t>Проверка обработки ошибок</t>
-  </si>
-  <si>
-    <t>Результат с ошибкой</t>
-  </si>
-  <si>
-    <t>Проверочные функции</t>
-  </si>
-  <si>
-    <t>ПРОВЕРКА</t>
-  </si>
-  <si>
-    <t>ЕСЛИОШИБКА</t>
-  </si>
-  <si>
-    <t>ЕОШ</t>
-  </si>
-  <si>
-    <t>ЕНД</t>
-  </si>
-  <si>
-    <t>ЕПУСТО</t>
-  </si>
-  <si>
-    <t>#N/A</t>
-  </si>
-  <si>
-    <t>ошибка найдена</t>
-  </si>
-  <si>
-    <t>#ДЕЛ/0!</t>
-  </si>
-  <si>
-    <t>#DIV/0!</t>
-  </si>
-  <si>
-    <t>#ЗНАЧ!</t>
   </si>
   <si>
     <t>#ССЫЛКА!</t>
@@ -882,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1030,9 +1454,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1342,8 +1763,8 @@
   <cols>
     <col min="1" max="1" width="64.28515625" customWidth="1" style="6"/>
     <col min="2" max="2" width="27" customWidth="1" style="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="16" width="9.140625" customWidth="1" style="1"/>
+    <col min="17" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1359,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="31">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1373,40 +1794,42 @@
         <v>4</v>
       </c>
       <c r="C5" s="31">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="35"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="31">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="35"/>
       <c r="B7" s="34"/>
       <c r="C7" s="31">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35"/>
       <c r="B8" s="34"/>
       <c r="C8" s="31">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35"/>
       <c r="B9" s="34"/>
       <c r="C9" s="31">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="35"/>
       <c r="B10" s="34"/>
       <c r="C10" s="31">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1420,17 +1843,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="31">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31">
         <v>3</v>
       </c>
-      <c r="D12" s="31">
+      <c r="E12" s="31">
+        <v>4</v>
+      </c>
+      <c r="F12" s="31">
         <v>5</v>
       </c>
-      <c r="E12" s="31">
-        <v>8</v>
-      </c>
-      <c r="F12" s="31"/>
       <c r="G12" s="31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1961,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,38 +2152,38 @@
       <c r="A15" s="37"/>
       <c r="B15" s="34"/>
       <c r="C15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37"/>
       <c r="B16" s="34"/>
       <c r="C16" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1768,16 +2193,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1806,7 +2231,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,8 +2245,8 @@
     <col min="8" max="10" width="24" customWidth="1" style="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
     <col min="12" max="13" width="24.85546875" customWidth="1" style="1"/>
-    <col min="14" max="16" width="9.140625" customWidth="1" style="1"/>
-    <col min="17" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="14" max="27" width="9.140625" customWidth="1" style="1"/>
+    <col min="28" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1">
@@ -1910,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>39</v>
@@ -1980,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="16">
-        <v>3000</v>
+        <v>33000</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>46</v>
@@ -2104,7 +2529,7 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="16">
         <v>3</v>
@@ -2124,7 +2549,7 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="16">
         <v>3</v>
@@ -2149,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782C8B9E-9A7C-409C-878F-8D9989F6D4A4}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,8 +2585,9 @@
     <col min="1" max="1" width="53.28515625" customWidth="1" style="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1" style="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1" style="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="1"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1" style="1"/>
+    <col min="5" max="17" width="9.140625" customWidth="1" style="1"/>
+    <col min="18" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30">
@@ -2185,7 +2611,7 @@
       </c>
       <c r="C3" s="13">
         <f>general_single_cell + in_single_cell</f>
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2195,7 +2621,7 @@
       </c>
       <c r="C4" s="13">
         <f>general_single_cell - in_single_cell</f>
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2205,7 +2631,7 @@
       </c>
       <c r="C5" s="13">
         <f>general_single_cell * (-3.14)</f>
-        <v>-62.800000000000004</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="6">
@@ -2215,7 +2641,7 @@
       </c>
       <c r="C6" s="13">
         <f>general_single_cell / 0.87</f>
-        <v>22.988505747126435</v>
+        <v>57.47126436781609</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -2226,7 +2652,7 @@
       </c>
       <c r="C7" s="13">
         <f>TRUNC(C6,1)</f>
-        <v>22.9</v>
+        <v>57.4</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -2237,7 +2663,7 @@
       </c>
       <c r="C8" s="13">
         <f>ROUNDUP(C6,1)</f>
-        <v>23</v>
+        <v>57.5</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -2248,7 +2674,7 @@
       </c>
       <c r="C9" s="13">
         <f>ROUNDDOWN(C7,1)</f>
-        <v>22.8</v>
+        <v>57.3</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -2259,7 +2685,7 @@
       </c>
       <c r="C10" s="13">
         <f>ROUND(C6,5)</f>
-        <v>22.98851</v>
+        <v>57.47126</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -2270,7 +2696,7 @@
       </c>
       <c r="C11" s="13">
         <f>ABS(C5)</f>
-        <v>62.800000000000004</v>
+        <v>157</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -2348,7 +2774,7 @@
       </c>
       <c r="C18" s="13">
         <f>general_single_cell^2</f>
-        <v>400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19">
@@ -2358,7 +2784,7 @@
       </c>
       <c r="C19" s="13">
         <f>EXP(general_single_cell)</f>
-        <v>485165195.4097903</v>
+        <v>5.184705528587072E+21</v>
       </c>
     </row>
     <row r="20">
@@ -2368,7 +2794,7 @@
       </c>
       <c r="C20" s="13">
         <f>LOG(C18,12)</f>
-        <v>2.411142707360513</v>
+        <v>3.1486277408142476</v>
       </c>
     </row>
     <row r="21">
@@ -2378,7 +2804,7 @@
       </c>
       <c r="C21" s="13">
         <f>LN(C19)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -2390,7 +2816,7 @@
       </c>
       <c r="C22" s="13">
         <f>RAND()</f>
-        <v>0.9173201145219244</v>
+        <v>0.8434010841154499</v>
       </c>
     </row>
     <row r="23">
@@ -2409,14 +2835,17 @@
         <v>79</v>
       </c>
       <c r="C24" s="13" t="e">
-        <f>_xlfn.NUMBERVALUE("1g000d"&amp;general_single_cell, "d", "g")</f>
+        <f>_xlfn.NUMBERVALUE(D24, "d", "g")</f>
         <v>#NAME?</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="42"/>
       <c r="B25" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="30" t="e">
         <f>CELL("filename")</f>
@@ -2431,76 +2860,76 @@
     </row>
     <row r="27">
       <c r="A27" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="17">
-        <f ref="C27:C32" t="array">IF(general_column_cells="",0,general_column_cells)+in_column_cells</f>
-        <v>7</v>
+        <f ref="C27:C32" t="array">general_column_cells+in_column_cells</f>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="35"/>
       <c r="B28" s="45"/>
       <c r="C28" s="17">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="35"/>
       <c r="B29" s="45"/>
       <c r="C29" s="17">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="35"/>
       <c r="B30" s="45"/>
       <c r="C30" s="17">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="35"/>
       <c r="B31" s="45"/>
       <c r="C31" s="17">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="35"/>
       <c r="B32" s="46"/>
       <c r="C32" s="17">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" ht="33.75">
+    <row r="34" ht="48.75">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="17">
-        <f ref="C34:G34" t="array">IF(general_row_cells="",0,general_row_cells)+in_row_cells</f>
-        <v>12</v>
+        <f ref="C34:G34" t="array">general_row_cells+in_row_cells</f>
+        <v>11</v>
       </c>
       <c r="D34" s="17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F34" s="17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G34" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2508,10 +2937,10 @@
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="17">
         <f ref="C36:G39" t="array">IF(general_table_cells="",0,general_table_cells)+in_row_cells</f>
@@ -2590,7 +3019,7 @@
     <row r="40">
       <c r="A40" s="37"/>
       <c r="B40" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="17">
         <f ref="C40:G43" t="array">IF(general_table_cells="",0,general_table_cells)+in_table_cells</f>
@@ -2613,38 +3042,38 @@
       <c r="A41" s="37"/>
       <c r="B41" s="45"/>
       <c r="C41" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="37"/>
       <c r="B42" s="45"/>
       <c r="C42" s="17">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42" s="17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F42" s="17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G42" s="17">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -2654,16 +3083,16 @@
         <v>29</v>
       </c>
       <c r="D43" s="17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F43" s="17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G43" s="17">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -2671,218 +3100,233 @@
     </row>
     <row r="45">
       <c r="A45" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="17">
         <f>SUM(general_row_cells)</f>
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="48"/>
       <c r="B46" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="17">
         <f>PRODUCT(general_row_cells)</f>
-        <v>1200</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" ht="30">
       <c r="A47" s="48"/>
       <c r="B47" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="17">
         <f>SUMPRODUCT(in_row_cells,general_row_cells)</f>
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="48"/>
       <c r="B48" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="17">
         <f>MAX(general_row_cells)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="48"/>
       <c r="B49" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="17">
         <f>MIN(general_row_cells)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="48"/>
       <c r="B50" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="17">
         <f>AVERAGE(general_row_cells)</f>
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="48"/>
       <c r="B51" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="17">
         <f>SMALL(general_row_cells,2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="48"/>
       <c r="B52" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="17">
         <f>LARGE(general_row_cells,2)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="48"/>
       <c r="B53" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="17">
         <f>COUNT(general_row_cells)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="49"/>
       <c r="B54" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="17">
         <f>COUNTA(general_row_cells)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="17">
         <f>SUMIF(f1_p1,"п1",f1_v1)</f>
-        <v>93.1</v>
+        <v>281.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="48"/>
       <c r="B56" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="17">
         <f>SUMIFS(f1_v1,f1_p1,"п1",f1_p2,"&gt;1")</f>
-        <v>92</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="48"/>
       <c r="B57" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" s="17">
         <f>COUNTIF(f1_p1,"п1")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="49"/>
       <c r="B58" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="17">
         <f>COUNTIFS(f1_p1,"п1",f1_p2,"&gt;1")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="48.75">
       <c r="A59" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="17">
         <f>VLOOKUP("Группа 3",dir_1,2,FALSE)</f>
-        <v>3000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="61" ht="67.5" customHeight="1">
-      <c r="A61" s="50" t="s">
-        <v>106</v>
+      <c r="A61" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="13" t="str">
-        <f>"начало строки "&amp;"середина"&amp;" конец строки"</f>
-        <v>начало строки середина конец строки</v>
+        <f>"начало строки "&amp;"середина"&amp;" конец строки"&amp;D61</f>
+        <v>начало строки середина конец строкиtest</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="67.5" customHeight="1">
-      <c r="A62" s="50"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C62" s="13" t="str">
-        <f>SUBSTITUTE("а1б1в1г1д1е1","1","")</f>
-        <v>абвгде</v>
+        <f>SUBSTITUTE(D62,"1","")</f>
+        <v>абвгдеtest</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" ht="67.5" customHeight="1">
-      <c r="A63" s="50"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="13" t="str">
-        <f>RIGHT("абвгд",3)</f>
-        <v>вгд</v>
+        <f>RIGHT(D63,3)</f>
+        <v>ase</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="50"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C64" s="13" t="str">
-        <f>LEFT("абвгд",3)</f>
-        <v>абв</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="50"/>
+        <f>LEFT(D64,3)</f>
+        <v>qas</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" ht="30">
+      <c r="A65" s="43"/>
       <c r="B65" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C65" s="13">
-        <f>FIND("а","1234а67890иииаиии",10)</f>
-        <v>14</v>
+        <f>FIND("а",D65,10)</f>
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C67" s="17">
         <f>COLUMNS(general_table_cells)</f>
@@ -2892,7 +3336,7 @@
     <row r="68">
       <c r="A68" s="43"/>
       <c r="B68" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C68" s="17">
         <f>ROWS(general_table_cells)</f>
@@ -2902,7 +3346,7 @@
     <row r="69">
       <c r="A69" s="43"/>
       <c r="B69" s="12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C69" s="17">
         <f>INDEX(general_table_cells,2,2)</f>
@@ -2912,7 +3356,7 @@
     <row r="70">
       <c r="A70" s="43"/>
       <c r="B70" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C70" s="17">
         <f>MATCH(D70,f2_p,1)</f>
@@ -2925,38 +3369,38 @@
     <row r="71">
       <c r="A71" s="43"/>
       <c r="B71" s="43" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C71" s="29" t="e">
         <f ref="C71:E72" t="array">OFFSET(general_table_cells,1,1,2,3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>118</v>
+      <c r="D71" s="17">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
-      <c r="C72" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>118</v>
+      <c r="C72" s="29">
+        <v>24</v>
+      </c>
+      <c r="D72" s="17">
+        <v>25</v>
+      </c>
+      <c r="E72" s="17">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="47" t="s">
-        <v>119</v>
+      <c r="A74" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C74" s="33" t="e">
         <f>INDEX(INDIRECT("f"&amp;D74&amp;"_p"&amp;E74),1,1)</f>
@@ -2970,32 +3414,53 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="48"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C75" s="17">
-        <f>ROW()</f>
+        <f>COLUMN() - 1</f>
+        <v>2</v>
+      </c>
+      <c r="D75" s="17">
+        <f>COLUMN() - 1</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="17">
+        <f>COLUMN() - 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="17">
+        <f>ROW() - 1</f>
         <v>75</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="49"/>
-      <c r="B76" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="17">
-        <f>COLUMN()</f>
-        <v>3</v>
+    <row r="77">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="17">
+        <f>ROW() - 1</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="17">
+        <f>ROW() - 1</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A67:A72"/>
@@ -3006,6 +3471,10 @@
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
@@ -3017,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D0BBD-0264-4EBF-85A9-BC8D87AEC22F}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,32 +3498,32 @@
     <col min="4" max="7" width="23.28515625" customWidth="1" style="18"/>
     <col min="8" max="8" width="9.140625" customWidth="1" style="18"/>
     <col min="9" max="13" width="24.140625" customWidth="1" style="18"/>
-    <col min="14" max="16" width="9.140625" customWidth="1" style="18"/>
-    <col min="17" max="16384" width="9.140625" customWidth="1" style="18"/>
+    <col min="14" max="27" width="9.140625" customWidth="1" style="18"/>
+    <col min="28" max="16384" width="9.140625" customWidth="1" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="54" t="s">
-        <v>124</v>
+      <c r="C1" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
-      <c r="H1" s="56" t="s">
-        <v>126</v>
+      <c r="H1" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
@@ -3063,40 +3532,40 @@
     <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="56"/>
+        <v>135</v>
+      </c>
+      <c r="H2" s="55"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="51" t="s">
-        <v>123</v>
-      </c>
       <c r="B3" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="22">
         <f>MATCH("Точно отсутствующее значение",general_row_cells,0)</f>
@@ -3118,12 +3587,12 @@
         <f>ISBLANK(C3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K3" s="23" t="b">
         <v>0</v>
@@ -3136,9 +3605,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C4" s="22" t="e">
         <f>1/0</f>
@@ -3160,12 +3629,12 @@
         <f ref="G4:G9" t="shared" si="3">ISBLANK(C4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K4" s="23" t="b">
         <v>1</v>
@@ -3178,9 +3647,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C5" s="22">
         <f>VALUE("")</f>
@@ -3202,12 +3671,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="23" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K5" s="23" t="b">
         <v>1</v>
@@ -3220,9 +3689,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C6" s="22" t="e">
         <f>INDEX(general_row_cells,99)</f>
@@ -3244,12 +3713,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="K6" s="23" t="b">
         <v>1</v>
@@ -3262,9 +3731,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C7" s="22" t="e">
         <f>unexist_name</f>
@@ -3286,12 +3755,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="56"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K7" s="23" t="b">
         <v>1</v>
@@ -3305,7 +3774,7 @@
     </row>
     <row r="8">
       <c r="C8" s="26" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -3323,12 +3792,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="56"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K8" s="23" t="b">
         <v>0</v>
@@ -3345,7 +3814,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H9" s="56"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
